--- a/riskmanagement_project/BLACK_SHOELS_RESULTS/simulation_results.xlsx
+++ b/riskmanagement_project/BLACK_SHOELS_RESULTS/simulation_results.xlsx
@@ -486,10 +486,10 @@
         <v>782.7895518318062</v>
       </c>
       <c r="E2" t="n">
-        <v>47.61904761904762</v>
+        <v>3.968253968253968</v>
       </c>
       <c r="F2" t="n">
-        <v>404507.6550492611</v>
+        <v>41156.06975236839</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -513,10 +513,10 @@
         <v>791.6174893992345</v>
       </c>
       <c r="E3" t="n">
-        <v>95.23809523809524</v>
+        <v>7.936507936507937</v>
       </c>
       <c r="F3" t="n">
-        <v>403423.2842464184</v>
+        <v>41056.37146668846</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -540,10 +540,10 @@
         <v>694.1905131661601</v>
       </c>
       <c r="E4" t="n">
-        <v>142.8571428571429</v>
+        <v>11.9047619047619</v>
       </c>
       <c r="F4" t="n">
-        <v>408246.1531711384</v>
+        <v>41451.76773134434</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -567,10 +567,10 @@
         <v>510.4418284365746</v>
       </c>
       <c r="E5" t="n">
-        <v>190.4761904761905</v>
+        <v>15.87301587301587</v>
       </c>
       <c r="F5" t="n">
-        <v>419928.2110147937</v>
+        <v>42455.39335024689</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -594,10 +594,10 @@
         <v>525.6421728992188</v>
       </c>
       <c r="E6" t="n">
-        <v>238.0952380952381</v>
+        <v>19.84126984126984</v>
       </c>
       <c r="F6" t="n">
-        <v>418051.4752775968</v>
+        <v>42282.19373733723</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -621,10 +621,10 @@
         <v>541.3079201524366</v>
       </c>
       <c r="E7" t="n">
-        <v>285.7142857142857</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="F7" t="n">
-        <v>416183.4403751763</v>
+        <v>42110.28307041672</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -648,10 +648,10 @@
         <v>1605.009154298619</v>
       </c>
       <c r="E8" t="n">
-        <v>333.3333333333334</v>
+        <v>27.77777777777778</v>
       </c>
       <c r="F8" t="n">
-        <v>429808.2897234455</v>
+        <v>44430.89276676885</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -675,10 +675,10 @@
         <v>1406.976915976823</v>
       </c>
       <c r="E9" t="n">
-        <v>380.952380952381</v>
+        <v>31.74603174603175</v>
       </c>
       <c r="F9" t="n">
-        <v>435831.7827055445</v>
+        <v>44855.8067012828</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -702,10 +702,10 @@
         <v>1501.803897863699</v>
       </c>
       <c r="E10" t="n">
-        <v>428.5714285714286</v>
+        <v>35.71428571428572</v>
       </c>
       <c r="F10" t="n">
-        <v>432047.0028574298</v>
+        <v>44563.46665096317</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -729,10 +729,10 @@
         <v>1360.674605085404</v>
       </c>
       <c r="E11" t="n">
-        <v>476.1904761904761</v>
+        <v>39.68253968253968</v>
       </c>
       <c r="F11" t="n">
-        <v>436308.6787322141</v>
+        <v>44863.41152573479</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -756,10 +756,10 @@
         <v>1452.455823681676</v>
       </c>
       <c r="E12" t="n">
-        <v>523.8095238095237</v>
+        <v>43.65079365079365</v>
       </c>
       <c r="F12" t="n">
-        <v>432564.8053443566</v>
+        <v>44572.42093447933</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -783,10 +783,10 @@
         <v>1549.887784006866</v>
       </c>
       <c r="E13" t="n">
-        <v>571.4285714285713</v>
+        <v>47.61904761904762</v>
       </c>
       <c r="F13" t="n">
-        <v>428840.8419002394</v>
+        <v>44288.50700515394</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -810,10 +810,10 @@
         <v>1474.997100020055</v>
       </c>
       <c r="E14" t="n">
-        <v>619.0476190476189</v>
+        <v>51.58730158730159</v>
       </c>
       <c r="F14" t="n">
-        <v>430687.904245073</v>
+        <v>44406.60527484281</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -837,10 +837,10 @@
         <v>1970.779869629</v>
       </c>
       <c r="E15" t="n">
-        <v>666.6666666666665</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="F15" t="n">
-        <v>415880.3140484768</v>
+        <v>43372.8443986249</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -864,10 +864,10 @@
         <v>2503.60191638574</v>
       </c>
       <c r="E16" t="n">
-        <v>714.2857142857141</v>
+        <v>59.52380952380953</v>
       </c>
       <c r="F16" t="n">
-        <v>403077.1568442529</v>
+        <v>42572.86217107722</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -891,10 +891,10 @@
         <v>2684.092731125872</v>
       </c>
       <c r="E17" t="n">
-        <v>761.9047619047617</v>
+        <v>63.49206349206349</v>
       </c>
       <c r="F17" t="n">
-        <v>398976.3920659547</v>
+        <v>42326.02107730716</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -918,10 +918,10 @@
         <v>3045.049278130218</v>
       </c>
       <c r="E18" t="n">
-        <v>809.5238095238093</v>
+        <v>67.46031746031747</v>
       </c>
       <c r="F18" t="n">
-        <v>391769.9180757629</v>
+        <v>41931.02822138554</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -945,10 +945,10 @@
         <v>2908.118024812531</v>
       </c>
       <c r="E19" t="n">
-        <v>857.1428571428569</v>
+        <v>71.42857142857144</v>
       </c>
       <c r="F19" t="n">
-        <v>393913.4471164956</v>
+        <v>42022.93664826655</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -972,10 +972,10 @@
         <v>3246.790357977947</v>
       </c>
       <c r="E20" t="n">
-        <v>904.7619047619044</v>
+        <v>75.39682539682542</v>
       </c>
       <c r="F20" t="n">
-        <v>387545.2193052441</v>
+        <v>41691.71261778392</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -999,10 +999,10 @@
         <v>3826.887760148626</v>
       </c>
       <c r="E21" t="n">
-        <v>952.380952380952</v>
+        <v>79.3650793650794</v>
       </c>
       <c r="F21" t="n">
-        <v>377940.1265003555</v>
+        <v>41254.08465004233</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1026,10 +1026,10 @@
         <v>3192.186675984164</v>
       </c>
       <c r="E22" t="n">
-        <v>999.9999999999995</v>
+        <v>83.33333333333337</v>
       </c>
       <c r="F22" t="n">
-        <v>387799.3805762171</v>
+        <v>41669.57273267413</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1053,10 +1053,10 @@
         <v>3267.398083311235</v>
       </c>
       <c r="E23" t="n">
-        <v>1047.619047619047</v>
+        <v>87.30158730158735</v>
       </c>
       <c r="F23" t="n">
-        <v>386192.8844404561</v>
+        <v>41577.40703648604</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1080,10 +1080,10 @@
         <v>3223.013370684044</v>
       </c>
       <c r="E24" t="n">
-        <v>1095.238095238095</v>
+        <v>91.26984126984132</v>
       </c>
       <c r="F24" t="n">
-        <v>386598.9198259601</v>
+        <v>41578.85798446562</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1107,10 +1107,10 @@
         <v>3816.737541936853</v>
       </c>
       <c r="E25" t="n">
-        <v>1142.857142857143</v>
+        <v>95.2380952380953</v>
       </c>
       <c r="F25" t="n">
-        <v>376938.6899457089</v>
+        <v>41147.98040136168</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1134,10 +1134,10 @@
         <v>4048.191621654261</v>
       </c>
       <c r="E26" t="n">
-        <v>1190.47619047619</v>
+        <v>99.20634920634927</v>
       </c>
       <c r="F26" t="n">
-        <v>373299.309514816</v>
+        <v>40993.14468081171</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1161,10 +1161,10 @@
         <v>3981.899592770258</v>
       </c>
       <c r="E27" t="n">
-        <v>1238.095238095238</v>
+        <v>103.1746031746032</v>
       </c>
       <c r="F27" t="n">
-        <v>373970.1956496261</v>
+        <v>41001.36411909076</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1188,10 +1188,10 @@
         <v>4510.989772837572</v>
       </c>
       <c r="E28" t="n">
-        <v>1285.714285714286</v>
+        <v>107.1428571428572</v>
       </c>
       <c r="F28" t="n">
-        <v>366471.3245589602</v>
+        <v>40728.45182287841</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1215,10 +1215,10 @@
         <v>4315.469316621233</v>
       </c>
       <c r="E29" t="n">
-        <v>1333.333333333334</v>
+        <v>111.1111111111112</v>
       </c>
       <c r="F29" t="n">
-        <v>368823.7587850024</v>
+        <v>40788.52048568157</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1242,10 +1242,10 @@
         <v>4593.027720386431</v>
       </c>
       <c r="E30" t="n">
-        <v>1380.952380952381</v>
+        <v>115.0793650793652</v>
       </c>
       <c r="F30" t="n">
-        <v>364931.7654184343</v>
+        <v>40649.91736320708</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1269,10 +1269,10 @@
         <v>4724.061811660135</v>
       </c>
       <c r="E31" t="n">
-        <v>1428.571428571429</v>
+        <v>119.0476190476192</v>
       </c>
       <c r="F31" t="n">
-        <v>363033.9065443247</v>
+        <v>40578.85580873611</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1296,10 +1296,10 @@
         <v>5015.455961259946</v>
       </c>
       <c r="E32" t="n">
-        <v>1476.190476190477</v>
+        <v>123.0158730158731</v>
       </c>
       <c r="F32" t="n">
-        <v>359217.3353636058</v>
+        <v>40460.2470760977</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1323,10 +1323,10 @@
         <v>4084.209278120617</v>
       </c>
       <c r="E33" t="n">
-        <v>1523.809523809524</v>
+        <v>126.9841269841271</v>
       </c>
       <c r="F33" t="n">
-        <v>370916.7656724011</v>
+        <v>40792.86174294549</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1350,10 +1350,10 @@
         <v>4075.147945543613</v>
       </c>
       <c r="E34" t="n">
-        <v>1571.428571428572</v>
+        <v>130.9523809523811</v>
       </c>
       <c r="F34" t="n">
-        <v>370773.528267332</v>
+        <v>40771.17645391293</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1377,10 +1377,10 @@
         <v>4579.002861558369</v>
       </c>
       <c r="E35" t="n">
-        <v>1619.047619047619</v>
+        <v>134.9206349206351</v>
       </c>
       <c r="F35" t="n">
-        <v>363948.7983656517</v>
+        <v>40542.96653895184</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1404,10 +1404,10 @@
         <v>4157.569820999804</v>
       </c>
       <c r="E36" t="n">
-        <v>1666.666666666667</v>
+        <v>138.888888888889</v>
       </c>
       <c r="F36" t="n">
-        <v>369142.3843339934</v>
+        <v>40683.82905007694</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1431,10 +1431,10 @@
         <v>4753.663447229826</v>
       </c>
       <c r="E37" t="n">
-        <v>1714.285714285715</v>
+        <v>142.857142857143</v>
       </c>
       <c r="F37" t="n">
-        <v>361335.5861691326</v>
+        <v>40440.42714799153</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1458,10 +1458,10 @@
         <v>4632.969331103616</v>
       </c>
       <c r="E38" t="n">
-        <v>1761.904761904763</v>
+        <v>146.825396825397</v>
       </c>
       <c r="F38" t="n">
-        <v>362591.5344545498</v>
+        <v>40458.19092281332</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1485,10 +1485,10 @@
         <v>5656.750199928318</v>
       </c>
       <c r="E39" t="n">
-        <v>1809.52380952381</v>
+        <v>150.793650793651</v>
       </c>
       <c r="F39" t="n">
-        <v>350496.3292035696</v>
+        <v>40170.86683045117</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1512,10 +1512,10 @@
         <v>6380.700766612769</v>
       </c>
       <c r="E40" t="n">
-        <v>1857.142857142858</v>
+        <v>154.7619047619049</v>
       </c>
       <c r="F40" t="n">
-        <v>342586.7187526891</v>
+        <v>40032.25494617278</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -1539,10 +1539,10 @@
         <v>6262.198096238621</v>
       </c>
       <c r="E41" t="n">
-        <v>1904.761904761906</v>
+        <v>158.7301587301589</v>
       </c>
       <c r="F41" t="n">
-        <v>343687.4535255881</v>
+        <v>40036.46967091961</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -1566,10 +1566,10 @@
         <v>5841.853185781381</v>
       </c>
       <c r="E42" t="n">
-        <v>1952.380952380954</v>
+        <v>162.6984126984129</v>
       </c>
       <c r="F42" t="n">
-        <v>347995.1823738717</v>
+        <v>40089.7257871301</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -1593,10 +1593,10 @@
         <v>5736.955157480655</v>
       </c>
       <c r="E43" t="n">
-        <v>2000.000000000001</v>
+        <v>166.6666666666669</v>
       </c>
       <c r="F43" t="n">
-        <v>348965.8041014067</v>
+        <v>40093.1733852066</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -1620,10 +1620,10 @@
         <v>5791.210347715644</v>
       </c>
       <c r="E44" t="n">
-        <v>2047.619047619049</v>
+        <v>170.6349206349208</v>
       </c>
       <c r="F44" t="n">
-        <v>348225.6619347326</v>
+        <v>40068.78249054432</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -1647,10 +1647,10 @@
         <v>5950.134379575023</v>
       </c>
       <c r="E45" t="n">
-        <v>2095.238095238097</v>
+        <v>174.6031746031748</v>
       </c>
       <c r="F45" t="n">
-        <v>346389.1911628471</v>
+        <v>40028.96069282286</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -1674,10 +1674,10 @@
         <v>6782.878187250226</v>
       </c>
       <c r="E46" t="n">
-        <v>2142.857142857144</v>
+        <v>178.5714285714288</v>
       </c>
       <c r="F46" t="n">
-        <v>337742.5737598233</v>
+        <v>39914.56203022182</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -1701,10 +1701,10 @@
         <v>7191.330173083891</v>
       </c>
       <c r="E47" t="n">
-        <v>2190.476190476192</v>
+        <v>182.5396825396828</v>
       </c>
       <c r="F47" t="n">
-        <v>333609.2302478089</v>
+        <v>39869.62811706433</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -1728,10 +1728,10 @@
         <v>7452.761267376654</v>
       </c>
       <c r="E48" t="n">
-        <v>2238.09523809524</v>
+        <v>186.5079365079368</v>
       </c>
       <c r="F48" t="n">
-        <v>330981.3740865108</v>
+        <v>39842.92413659166</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -1755,10 +1755,10 @@
         <v>6834.946310611705</v>
       </c>
       <c r="E49" t="n">
-        <v>2285.714285714288</v>
+        <v>190.4761904761907</v>
       </c>
       <c r="F49" t="n">
-        <v>336896.1317812965</v>
+        <v>39879.16009577541</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -1782,10 +1782,10 @@
         <v>6629.495029774709</v>
       </c>
       <c r="E50" t="n">
-        <v>2333.333333333336</v>
+        <v>194.4444444444447</v>
       </c>
       <c r="F50" t="n">
-        <v>338814.9819045983</v>
+        <v>39886.93260614595</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -1809,10 +1809,10 @@
         <v>7650.817123793668</v>
       </c>
       <c r="E51" t="n">
-        <v>2380.952380952383</v>
+        <v>198.4126984126986</v>
       </c>
       <c r="F51" t="n">
-        <v>328833.2008519428</v>
+        <v>39808.73803629112</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -1836,10 +1836,10 @@
         <v>7457.678100091804</v>
       </c>
       <c r="E52" t="n">
-        <v>2428.571428571431</v>
+        <v>202.3809523809526</v>
       </c>
       <c r="F52" t="n">
-        <v>330586.7554249717</v>
+        <v>39811.06202305598</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -1863,10 +1863,10 @@
         <v>7679.280319594728</v>
       </c>
       <c r="E53" t="n">
-        <v>2476.190476190478</v>
+        <v>206.3492063492066</v>
       </c>
       <c r="F53" t="n">
-        <v>328406.6194560951</v>
+        <v>39793.28407451461</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -1890,10 +1890,10 @@
         <v>8072.394460441977</v>
       </c>
       <c r="E54" t="n">
-        <v>2523.809523809526</v>
+        <v>210.3174603174606</v>
       </c>
       <c r="F54" t="n">
-        <v>324650.2298963349</v>
+        <v>39772.24149609476</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -1917,10 +1917,10 @@
         <v>7711.051880929986</v>
       </c>
       <c r="E55" t="n">
-        <v>2571.428571428574</v>
+        <v>214.2857142857146</v>
       </c>
       <c r="F55" t="n">
-        <v>327957.8334186147</v>
+        <v>39778.58717755559</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -1944,10 +1944,10 @@
         <v>7099.276914720694</v>
       </c>
       <c r="E56" t="n">
-        <v>2619.047619047621</v>
+        <v>218.2539682539685</v>
       </c>
       <c r="F56" t="n">
-        <v>333656.5286522838</v>
+        <v>39798.65288212779</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -1971,10 +1971,10 @@
         <v>6542.889433666691</v>
       </c>
       <c r="E57" t="n">
-        <v>2666.666666666669</v>
+        <v>222.2222222222225</v>
       </c>
       <c r="F57" t="n">
-        <v>338903.8761147417</v>
+        <v>39823.43254621864</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -1998,10 +1998,10 @@
         <v>7036.018950531052</v>
       </c>
       <c r="E58" t="n">
-        <v>2714.285714285717</v>
+        <v>226.1904761904765</v>
       </c>
       <c r="F58" t="n">
-        <v>334084.4710282306</v>
+        <v>39786.10225353911</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -2025,10 +2025,10 @@
         <v>7216.095022261435</v>
       </c>
       <c r="E59" t="n">
-        <v>2761.904761904765</v>
+        <v>230.1587301587305</v>
       </c>
       <c r="F59" t="n">
-        <v>332302.1354166384</v>
+        <v>39770.73080773088</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -2052,10 +2052,10 @@
         <v>7014.641283917076</v>
       </c>
       <c r="E60" t="n">
-        <v>2809.523809523812</v>
+        <v>234.1269841269844</v>
       </c>
       <c r="F60" t="n">
-        <v>334118.5431735804</v>
+        <v>39771.8568697088</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -2079,10 +2079,10 @@
         <v>6425.632404988878</v>
       </c>
       <c r="E61" t="n">
-        <v>2857.14285714286</v>
+        <v>238.0952380952384</v>
       </c>
       <c r="F61" t="n">
-        <v>339627.378005941</v>
+        <v>39793.42601270314</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -2106,10 +2106,10 @@
         <v>6708.529405594301</v>
       </c>
       <c r="E62" t="n">
-        <v>2904.761904761908</v>
+        <v>242.0634920634924</v>
       </c>
       <c r="F62" t="n">
-        <v>336839.8800404958</v>
+        <v>39770.07716749716</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -2133,10 +2133,10 @@
         <v>6816.199734758563</v>
       </c>
       <c r="E63" t="n">
-        <v>2952.380952380955</v>
+        <v>246.0317460317464</v>
       </c>
       <c r="F63" t="n">
-        <v>335740.1388215308</v>
+        <v>39757.79999264214</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -2160,10 +2160,10 @@
         <v>7479.62351204809</v>
       </c>
       <c r="E64" t="n">
-        <v>3000.000000000003</v>
+        <v>250.0000000000004</v>
       </c>
       <c r="F64" t="n">
-        <v>329495.7067338971</v>
+        <v>39731.23183423299</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -2187,10 +2187,10 @@
         <v>8193.026482982965</v>
       </c>
       <c r="E65" t="n">
-        <v>3047.619047619051</v>
+        <v>253.9682539682543</v>
       </c>
       <c r="F65" t="n">
-        <v>322902.9196945544</v>
+        <v>39714.80945493376</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -2214,10 +2214,10 @@
         <v>7706.692346760193</v>
       </c>
       <c r="E66" t="n">
-        <v>3095.238095238099</v>
+        <v>257.9365079365083</v>
       </c>
       <c r="F66" t="n">
-        <v>327292.354750448</v>
+        <v>39716.84588871628</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -2241,10 +2241,10 @@
         <v>6883.689057428896</v>
       </c>
       <c r="E67" t="n">
-        <v>3142.857142857146</v>
+        <v>261.9047619047623</v>
       </c>
       <c r="F67" t="n">
-        <v>334805.7563061769</v>
+        <v>39728.27673468465</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -2268,10 +2268,10 @@
         <v>6924.920903308874</v>
       </c>
       <c r="E68" t="n">
-        <v>3190.476190476194</v>
+        <v>265.8730158730162</v>
       </c>
       <c r="F68" t="n">
-        <v>334355.774977968</v>
+        <v>39721.18091394939</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -2295,10 +2295,10 @@
         <v>6306.158207366841</v>
       </c>
       <c r="E69" t="n">
-        <v>3238.095238095242</v>
+        <v>269.8412698412702</v>
       </c>
       <c r="F69" t="n">
-        <v>340026.2189838517</v>
+        <v>39732.13253898358</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -2322,10 +2322,10 @@
         <v>6078.781185469296</v>
       </c>
       <c r="E70" t="n">
-        <v>3285.714285714289</v>
+        <v>273.8095238095242</v>
       </c>
       <c r="F70" t="n">
-        <v>342068.7831893263</v>
+        <v>39732.5432906169</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -2349,10 +2349,10 @@
         <v>6474.219583392987</v>
       </c>
       <c r="E71" t="n">
-        <v>3333.333333333337</v>
+        <v>277.7777777777782</v>
       </c>
       <c r="F71" t="n">
-        <v>338312.1197472257</v>
+        <v>39713.56515533181</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -2376,10 +2376,10 @@
         <v>6246.981844254328</v>
       </c>
       <c r="E72" t="n">
-        <v>3380.952380952385</v>
+        <v>281.7460317460321</v>
       </c>
       <c r="F72" t="n">
-        <v>340340.9996617286</v>
+        <v>39712.73283235095</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -2403,10 +2403,10 @@
         <v>5282.29948321453</v>
       </c>
       <c r="E73" t="n">
-        <v>3428.571428571433</v>
+        <v>285.7142857142861</v>
       </c>
       <c r="F73" t="n">
-        <v>349288.7180691779</v>
+        <v>39740.08419895373</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -2430,10 +2430,10 @@
         <v>5298.272398402375</v>
       </c>
       <c r="E74" t="n">
-        <v>3476.19047619048</v>
+        <v>289.6825396825401</v>
       </c>
       <c r="F74" t="n">
-        <v>349028.8875700483</v>
+        <v>39729.27042350348</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -2457,10 +2457,10 @@
         <v>4311.091412900148</v>
       </c>
       <c r="E75" t="n">
-        <v>3523.809523809528</v>
+        <v>293.6507936507941</v>
       </c>
       <c r="F75" t="n">
-        <v>358421.1091451794</v>
+        <v>39780.82334485824</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -2484,10 +2484,10 @@
         <v>5954.734285935246</v>
       </c>
       <c r="E76" t="n">
-        <v>3571.428571428576</v>
+        <v>297.619047619048</v>
       </c>
       <c r="F76" t="n">
-        <v>342749.1900453564</v>
+        <v>39693.70367140117</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -2511,10 +2511,10 @@
         <v>5430.142943204053</v>
       </c>
       <c r="E77" t="n">
-        <v>3619.047619047624</v>
+        <v>301.587301587302</v>
       </c>
       <c r="F77" t="n">
-        <v>347511.9194761043</v>
+        <v>39698.63805681154</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -2538,10 +2538,10 @@
         <v>5370.585944899318</v>
       </c>
       <c r="E78" t="n">
-        <v>3666.666666666671</v>
+        <v>305.555555555556</v>
       </c>
       <c r="F78" t="n">
-        <v>347980.8490886663</v>
+        <v>39692.72337038712</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -2565,10 +2565,10 @@
         <v>5558.748977916743</v>
       </c>
       <c r="E79" t="n">
-        <v>3714.285714285719</v>
+        <v>309.52380952381</v>
       </c>
       <c r="F79" t="n">
-        <v>346177.1100226953</v>
+        <v>39682.48984429937</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -2592,10 +2592,10 @@
         <v>5497.379169449808</v>
       </c>
       <c r="E80" t="n">
-        <v>3761.904761904767</v>
+        <v>313.4920634920639</v>
       </c>
       <c r="F80" t="n">
-        <v>346672.6726595424</v>
+        <v>39677.60693115748</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -2619,10 +2619,10 @@
         <v>6760.784942916729</v>
       </c>
       <c r="E81" t="n">
-        <v>3809.523809523814</v>
+        <v>317.4603174603179</v>
       </c>
       <c r="F81" t="n">
-        <v>335179.0712797502</v>
+        <v>39666.10564009214</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -2646,10 +2646,10 @@
         <v>6898.7722496868</v>
       </c>
       <c r="E82" t="n">
-        <v>3857.142857142862</v>
+        <v>321.4285714285719</v>
       </c>
       <c r="F82" t="n">
-        <v>333899.7234148533</v>
+        <v>39663.15308048916</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -2673,10 +2673,10 @@
         <v>6675.548194341253</v>
       </c>
       <c r="E83" t="n">
-        <v>3904.76190476191</v>
+        <v>325.3968253968259</v>
       </c>
       <c r="F83" t="n">
-        <v>335876.0082511471</v>
+        <v>39660.67356510119</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -2700,10 +2700,10 @@
         <v>5733.721778881368</v>
       </c>
       <c r="E84" t="n">
-        <v>3952.380952380957</v>
+        <v>329.3650793650799</v>
       </c>
       <c r="F84" t="n">
-        <v>344328.0612277424</v>
+        <v>39659.02873964048</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -2727,10 +2727,10 @@
         <v>6067.646002456101</v>
       </c>
       <c r="E85" t="n">
-        <v>4000.000000000005</v>
+        <v>333.3333333333338</v>
       </c>
       <c r="F85" t="n">
-        <v>341282.5141838593</v>
+        <v>39655.79948726309</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -2754,10 +2754,10 @@
         <v>6582.690333254504</v>
       </c>
       <c r="E86" t="n">
-        <v>4047.619047619053</v>
+        <v>337.3015873015878</v>
       </c>
       <c r="F86" t="n">
-        <v>336613.1409979752</v>
+        <v>39653.19571718689</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -2781,10 +2781,10 @@
         <v>6898.880723432143</v>
       </c>
       <c r="E87" t="n">
-        <v>4095.238095238101</v>
+        <v>341.2698412698418</v>
       </c>
       <c r="F87" t="n">
-        <v>333735.4898995979</v>
+        <v>39650.79560930269</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -2808,10 +2808,10 @@
         <v>6322.316436885423</v>
       </c>
       <c r="E88" t="n">
-        <v>4142.857142857148</v>
+        <v>345.2380952380957</v>
       </c>
       <c r="F88" t="n">
-        <v>338892.8153312758</v>
+        <v>39648.41394537208</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -2835,10 +2835,10 @@
         <v>6113.378147744129</v>
       </c>
       <c r="E89" t="n">
-        <v>4190.476190476195</v>
+        <v>349.2063492063497</v>
       </c>
       <c r="F89" t="n">
-        <v>340741.5047135417</v>
+        <v>39646.03207416516</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -2862,10 +2862,10 @@
         <v>6451.809004018969</v>
       </c>
       <c r="E90" t="n">
-        <v>4238.095238095243</v>
+        <v>353.1746031746037</v>
       </c>
       <c r="F90" t="n">
-        <v>337663.8789537509</v>
+        <v>39643.65091962709</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -2889,10 +2889,10 @@
         <v>6125.752015970896</v>
       </c>
       <c r="E91" t="n">
-        <v>4285.714285714291</v>
+        <v>357.1428571428577</v>
       </c>
       <c r="F91" t="n">
-        <v>340566.6448696112</v>
+        <v>39641.26987276351</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>

--- a/riskmanagement_project/BLACK_SHOELS_RESULTS/simulation_results.xlsx
+++ b/riskmanagement_project/BLACK_SHOELS_RESULTS/simulation_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G91"/>
+  <dimension ref="A1:I91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,16 @@
           <t>Action</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Position Value</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -477,24 +487,32 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>40.37724845450484</v>
+        <v>49.46212935676843</v>
       </c>
       <c r="C2" t="n">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>782.7895518318062</v>
+        <v>7.057897525863838e-43</v>
       </c>
       <c r="E2" t="n">
-        <v>3.968253968253968</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="F2" t="n">
-        <v>41156.06975236839</v>
+        <v>4945.726824565732</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[!] No need for action today</t>
-        </is>
+          <t xml:space="preserve"> [+] DAY: 0 Bought puts at K=$4.0 for $0.00, [PRICE ACTION] Sold puts at $34.0, bought puts at $4.0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>$4,945.73</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>4945.726824565732</v>
       </c>
     </row>
     <row r="3">
@@ -504,24 +522,32 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>40.27269048522573</v>
+        <v>49.33602558098684</v>
       </c>
       <c r="C3" t="n">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>791.6174893992345</v>
+        <v>2.815307196306532e-43</v>
       </c>
       <c r="E3" t="n">
-        <v>7.936507936507937</v>
+        <v>0.9722222222222222</v>
       </c>
       <c r="F3" t="n">
-        <v>41056.37146668846</v>
+        <v>4932.630335876461</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
           <t>[!] No need for action today</t>
         </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>$4,932.63</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>4932.630335876461</v>
       </c>
     </row>
     <row r="4">
@@ -531,24 +557,32 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>40.76948198008294</v>
+        <v>49.94662382203796</v>
       </c>
       <c r="C4" t="n">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>694.1905131661601</v>
+        <v>3.327324144041116e-44</v>
       </c>
       <c r="E4" t="n">
-        <v>11.9047619047619</v>
+        <v>1.458333333333333</v>
       </c>
       <c r="F4" t="n">
-        <v>41451.76773134434</v>
+        <v>4993.204048870462</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
           <t>[!] No need for action today</t>
         </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>$4,993.20</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>4993.204048870462</v>
       </c>
     </row>
     <row r="5">
@@ -558,24 +592,32 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>41.96082453768333</v>
+        <v>51.40819847409598</v>
       </c>
       <c r="C5" t="n">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>510.4418284365746</v>
+        <v>9.552334347159618e-46</v>
       </c>
       <c r="E5" t="n">
-        <v>15.87301587301587</v>
+        <v>1.944444444444444</v>
       </c>
       <c r="F5" t="n">
-        <v>42455.39335024689</v>
+        <v>5138.875402965154</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
           <t>[!] No need for action today</t>
         </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>$5,138.88</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>5138.875402965154</v>
       </c>
     </row>
     <row r="6">
@@ -585,24 +627,32 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>41.77639283427928</v>
+        <v>51.18429634055894</v>
       </c>
       <c r="C6" t="n">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>525.6421728992188</v>
+        <v>3.990362481839029e-46</v>
       </c>
       <c r="E6" t="n">
-        <v>19.84126984126984</v>
+        <v>2.430555555555556</v>
       </c>
       <c r="F6" t="n">
-        <v>42282.19373733723</v>
+        <v>5115.999078500338</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
           <t>[!] No need for action today</t>
         </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>$5,116.00</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>5115.999078500338</v>
       </c>
     </row>
     <row r="7">
@@ -612,24 +662,32 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.59278467407381</v>
+        <v>50.96138519705672</v>
       </c>
       <c r="C7" t="n">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>541.3079201524366</v>
+        <v>1.632238893839608e-46</v>
       </c>
       <c r="E7" t="n">
-        <v>23.80952380952381</v>
+        <v>2.916666666666667</v>
       </c>
       <c r="F7" t="n">
-        <v>42110.28307041672</v>
+        <v>5093.221853039005</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
           <t>[!] No need for action today</t>
         </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>$5,093.22</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>5093.221853039005</v>
       </c>
     </row>
     <row r="8">
@@ -639,24 +697,32 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>42.85366139024801</v>
+        <v>52.50837614737682</v>
       </c>
       <c r="C8" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>1605.009154298619</v>
+        <v>3.472495261236718e-48</v>
       </c>
       <c r="E8" t="n">
-        <v>27.77777777777778</v>
+        <v>3.402777777777778</v>
       </c>
       <c r="F8" t="n">
-        <v>44430.89276676885</v>
+        <v>5247.434836959905</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> [+] DAY: 6 Bought puts at K=$40.0 for $1605.01, [PRICE ACTION] Sold puts at $35.0, bought puts at $40.0</t>
-        </is>
+          <t>[!] No need for action today</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>$5,247.43</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>5247.434836959905</v>
       </c>
     </row>
     <row r="9">
@@ -666,24 +732,32 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>43.480575817052</v>
+        <v>53.27866919244317</v>
       </c>
       <c r="C9" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>1406.976915976823</v>
+        <v>2.52103726998848e-49</v>
       </c>
       <c r="E9" t="n">
-        <v>31.74603174603175</v>
+        <v>3.888888888888889</v>
       </c>
       <c r="F9" t="n">
-        <v>44855.8067012828</v>
+        <v>5323.978030355428</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
           <t>[!] No need for action today</t>
         </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>$5,323.98</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>5323.978030355428</v>
       </c>
     </row>
     <row r="10">
@@ -693,24 +767,32 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>43.09737703881376</v>
+        <v>52.81123799998915</v>
       </c>
       <c r="C10" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>1501.803897863699</v>
+        <v>1.361729782852395e-49</v>
       </c>
       <c r="E10" t="n">
-        <v>35.71428571428572</v>
+        <v>4.375</v>
       </c>
       <c r="F10" t="n">
-        <v>44563.46665096317</v>
+        <v>5276.748799998915</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
           <t>[!] No need for action today</t>
         </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>$5,276.75</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>5276.748799998915</v>
       </c>
     </row>
     <row r="11">
@@ -720,24 +802,32 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>43.54241946033192</v>
+        <v>53.35873116925643</v>
       </c>
       <c r="C11" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>1360.674605085404</v>
+        <v>1.302147670972581e-50</v>
       </c>
       <c r="E11" t="n">
-        <v>39.68253968253968</v>
+        <v>4.861111111111111</v>
       </c>
       <c r="F11" t="n">
-        <v>44863.41152573479</v>
+        <v>5331.012005814531</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
           <t>[!] No need for action today</t>
         </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>$5,331.01</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>5331.012005814531</v>
       </c>
     </row>
     <row r="12">
@@ -747,24 +837,32 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>43.16361590444845</v>
+        <v>52.89665181037189</v>
       </c>
       <c r="C12" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>1452.455823681676</v>
+        <v>6.610729652906852e-51</v>
       </c>
       <c r="E12" t="n">
-        <v>43.65079365079365</v>
+        <v>5.347222222222221</v>
       </c>
       <c r="F12" t="n">
-        <v>44572.42093447933</v>
+        <v>5284.317958814967</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
           <t>[!] No need for action today</t>
         </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>$5,284.32</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>5284.317958814967</v>
       </c>
     </row>
     <row r="13">
@@ -774,24 +872,32 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>42.78623826876611</v>
+        <v>52.43628280325093</v>
       </c>
       <c r="C13" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>1549.887784006866</v>
+        <v>3.303951255740231e-51</v>
       </c>
       <c r="E13" t="n">
-        <v>47.61904761904762</v>
+        <v>5.833333333333332</v>
       </c>
       <c r="F13" t="n">
-        <v>44288.50700515394</v>
+        <v>5237.79494699176</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
           <t>[!] No need for action today</t>
         </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>$5,237.79</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>5237.79494699176</v>
       </c>
     </row>
     <row r="14">
@@ -801,24 +907,32 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>42.98319547641006</v>
+        <v>52.67977582013763</v>
       </c>
       <c r="C14" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>1474.997100020055</v>
+        <v>4.684543662320807e-52</v>
       </c>
       <c r="E14" t="n">
-        <v>51.58730158730159</v>
+        <v>6.319444444444443</v>
       </c>
       <c r="F14" t="n">
-        <v>44406.60527484281</v>
+        <v>5261.658137569319</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
           <t>[!] No need for action today</t>
         </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>$5,261.66</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>5261.658137569319</v>
       </c>
     </row>
     <row r="15">
@@ -828,24 +942,32 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>41.45762008455145</v>
+        <v>50.81208479764181</v>
       </c>
       <c r="C15" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>1970.779869629</v>
+        <v>2.850330261885478e-51</v>
       </c>
       <c r="E15" t="n">
-        <v>55.55555555555556</v>
+        <v>6.805555555555554</v>
       </c>
       <c r="F15" t="n">
-        <v>43372.8443986249</v>
+        <v>5074.402924208625</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
           <t>[!] No need for action today</t>
         </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>$5,074.40</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>5074.402924208625</v>
       </c>
     </row>
     <row r="16">
@@ -855,24 +977,32 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>40.12878406421529</v>
+        <v>49.18538495699213</v>
       </c>
       <c r="C16" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>2503.60191638574</v>
+        <v>1.246236598415771e-50</v>
       </c>
       <c r="E16" t="n">
-        <v>59.52380952380953</v>
+        <v>7.291666666666664</v>
       </c>
       <c r="F16" t="n">
-        <v>42572.86217107722</v>
+        <v>4911.246829032545</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
           <t>[!] No need for action today</t>
         </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>$4,911.25</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>4911.246829032545</v>
       </c>
     </row>
     <row r="17">
@@ -882,24 +1012,32 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>39.70542040967335</v>
+        <v>48.66842598591379</v>
       </c>
       <c r="C17" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>2684.092731125872</v>
+        <v>7.018433853118525e-51</v>
       </c>
       <c r="E17" t="n">
-        <v>63.49206349206349</v>
+        <v>7.777777777777775</v>
       </c>
       <c r="F17" t="n">
-        <v>42326.02107730716</v>
+        <v>4859.064820813601</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
           <t>[!] No need for action today</t>
         </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>$4,859.06</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>4859.064820813601</v>
       </c>
     </row>
     <row r="18">
@@ -909,24 +1047,32 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>38.95343926071564</v>
+        <v>47.7486104684644</v>
       </c>
       <c r="C18" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>3045.049278130218</v>
+        <v>8.65816455411372e-51</v>
       </c>
       <c r="E18" t="n">
-        <v>67.46031746031747</v>
+        <v>8.263888888888886</v>
       </c>
       <c r="F18" t="n">
-        <v>41931.02822138554</v>
+        <v>4766.597157957552</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
           <t>[!] No need for action today</t>
         </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>$4,766.60</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>4766.597157957552</v>
       </c>
     </row>
     <row r="19">
@@ -936,24 +1082,32 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>39.18624719488259</v>
+        <v>48.03591092007464</v>
       </c>
       <c r="C19" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>2908.118024812531</v>
+        <v>9.715756237307264e-52</v>
       </c>
       <c r="E19" t="n">
-        <v>71.42857142857144</v>
+        <v>8.749999999999996</v>
       </c>
       <c r="F19" t="n">
-        <v>42022.93664826655</v>
+        <v>4794.841092007464</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
           <t>[!] No need for action today</t>
         </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>$4,794.84</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>4794.841092007464</v>
       </c>
     </row>
     <row r="20">
@@ -963,24 +1117,32 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>38.5203190852028</v>
+        <v>47.22148718216683</v>
       </c>
       <c r="C20" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>3246.790357977947</v>
+        <v>9.600776298360016e-52</v>
       </c>
       <c r="E20" t="n">
-        <v>75.39682539682542</v>
+        <v>9.236111111111107</v>
       </c>
       <c r="F20" t="n">
-        <v>41691.71261778392</v>
+        <v>4712.912607105572</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
           <t>[!] No need for action today</t>
         </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>$4,712.91</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>4712.912607105572</v>
       </c>
     </row>
     <row r="21">
@@ -990,24 +1152,32 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>37.50656196925878</v>
+        <v>45.9805824775968</v>
       </c>
       <c r="C21" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
-        <v>3826.887760148626</v>
+        <v>2.361257247821888e-51</v>
       </c>
       <c r="E21" t="n">
-        <v>79.3650793650794</v>
+        <v>9.722222222222218</v>
       </c>
       <c r="F21" t="n">
-        <v>41254.08465004233</v>
+        <v>4588.336025537457</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
           <t>[!] No need for action today</t>
         </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>$4,588.34</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>4588.336025537457</v>
       </c>
     </row>
     <row r="22">
@@ -1017,24 +1187,32 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>38.56071939002329</v>
+        <v>47.27480728948368</v>
       </c>
       <c r="C22" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
-        <v>3192.186675984164</v>
+        <v>2.788113536644167e-53</v>
       </c>
       <c r="E22" t="n">
-        <v>83.33333333333337</v>
+        <v>10.20833333333333</v>
       </c>
       <c r="F22" t="n">
-        <v>41669.57273267413</v>
+        <v>4717.272395615035</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
           <t>[!] No need for action today</t>
         </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>$4,717.27</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>4717.272395615035</v>
       </c>
     </row>
     <row r="23">
@@ -1044,24 +1222,32 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>38.39731054047639</v>
+        <v>47.07635979114276</v>
       </c>
       <c r="C23" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
-        <v>3267.398083311235</v>
+        <v>7.111136816606674e-54</v>
       </c>
       <c r="E23" t="n">
-        <v>87.30158730158735</v>
+        <v>10.69444444444444</v>
       </c>
       <c r="F23" t="n">
-        <v>41577.40703648604</v>
+        <v>4696.941534669832</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
           <t>[!] No need for action today</t>
         </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>$4,696.94</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>4696.941534669832</v>
       </c>
     </row>
     <row r="24">
@@ -1071,24 +1257,32 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>38.44711445505142</v>
+        <v>47.13931260866798</v>
       </c>
       <c r="C24" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
-        <v>3223.013370684044</v>
+        <v>9.90102199837063e-55</v>
       </c>
       <c r="E24" t="n">
-        <v>91.26984126984132</v>
+        <v>11.18055555555555</v>
       </c>
       <c r="F24" t="n">
-        <v>41578.85798446562</v>
+        <v>4702.750705311242</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
           <t>[!] No need for action today</t>
         </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>$4,702.75</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>4702.750705311242</v>
       </c>
     </row>
     <row r="25">
@@ -1098,24 +1292,32 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>37.42648095466292</v>
+        <v>45.88977375508578</v>
       </c>
       <c r="C25" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
-        <v>3816.737541936853</v>
+        <v>2.372240356053298e-54</v>
       </c>
       <c r="E25" t="n">
-        <v>95.2380952380953</v>
+        <v>11.66666666666666</v>
       </c>
       <c r="F25" t="n">
-        <v>41147.98040136168</v>
+        <v>4577.310708841911</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
           <t>[!] No need for action today</t>
         </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>$4,577.31</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>4577.310708841911</v>
       </c>
     </row>
     <row r="26">
@@ -1125,24 +1327,32 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>37.0441594083638</v>
+        <v>45.42282011073564</v>
       </c>
       <c r="C26" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
-        <v>4048.191621654261</v>
+        <v>1.017678370436371e-54</v>
       </c>
       <c r="E26" t="n">
-        <v>99.20634920634927</v>
+        <v>12.15277777777777</v>
       </c>
       <c r="F26" t="n">
-        <v>40993.14468081171</v>
+        <v>4530.129233295787</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
           <t>[!] No need for action today</t>
         </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>$4,530.13</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>4530.129233295787</v>
       </c>
     </row>
     <row r="27">
@@ -1152,24 +1362,32 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>37.12263912949511</v>
+        <v>45.52087704596488</v>
       </c>
       <c r="C27" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
-        <v>3981.899592770258</v>
+        <v>1.155118105089142e-55</v>
       </c>
       <c r="E27" t="n">
-        <v>103.1746031746032</v>
+        <v>12.63888888888888</v>
       </c>
       <c r="F27" t="n">
-        <v>41001.36411909076</v>
+        <v>4539.448815707599</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
           <t>[!] No need for action today</t>
         </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>$4,539.45</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>4539.448815707599</v>
       </c>
     </row>
     <row r="28">
@@ -1179,24 +1397,32 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>36.32460490718369</v>
+        <v>44.54409134900789</v>
       </c>
       <c r="C28" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
-        <v>4510.989772837572</v>
+        <v>1.549227113390854e-55</v>
       </c>
       <c r="E28" t="n">
-        <v>107.1428571428572</v>
+        <v>13.12499999999999</v>
       </c>
       <c r="F28" t="n">
-        <v>40728.45182287841</v>
+        <v>4441.284134900789</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
           <t>[!] No need for action today</t>
         </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>$4,441.28</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>4441.284134900789</v>
       </c>
     </row>
     <row r="29">
@@ -1206,24 +1432,32 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>36.58416228017145</v>
+        <v>44.86418133387139</v>
       </c>
       <c r="C29" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
-        <v>4315.469316621233</v>
+        <v>9.312500691439609e-57</v>
       </c>
       <c r="E29" t="n">
-        <v>111.1111111111112</v>
+        <v>13.6111111111111</v>
       </c>
       <c r="F29" t="n">
-        <v>40788.52048568157</v>
+        <v>4472.807022276027</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
           <t>[!] No need for action today</t>
         </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>$4,472.81</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>4472.807022276027</v>
       </c>
     </row>
     <row r="30">
@@ -1233,24 +1467,32 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>36.17196900790002</v>
+        <v>44.36047727624057</v>
       </c>
       <c r="C30" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
-        <v>4593.027720386431</v>
+        <v>3.848840330666629e-57</v>
       </c>
       <c r="E30" t="n">
-        <v>115.0793650793652</v>
+        <v>14.09722222222221</v>
       </c>
       <c r="F30" t="n">
-        <v>40649.91736320708</v>
+        <v>4421.950505401835</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
           <t>[!] No need for action today</t>
         </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>$4,421.95</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>4421.950505401835</v>
       </c>
     </row>
     <row r="31">
@@ -1260,24 +1502,32 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>35.97384161612359</v>
+        <v>44.11926876524473</v>
       </c>
       <c r="C31" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
-        <v>4724.061811660135</v>
+        <v>8.061588481051917e-58</v>
       </c>
       <c r="E31" t="n">
-        <v>119.0476190476192</v>
+        <v>14.58333333333332</v>
       </c>
       <c r="F31" t="n">
-        <v>40578.85580873611</v>
+        <v>4397.34354319114</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
           <t>[!] No need for action today</t>
         </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>$4,397.34</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>4397.34354319114</v>
       </c>
     </row>
     <row r="32">
@@ -1287,24 +1537,32 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>35.56780698785363</v>
+        <v>43.62304766969089</v>
       </c>
       <c r="C32" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
-        <v>5015.455961259946</v>
+        <v>3.08734185705518e-58</v>
       </c>
       <c r="E32" t="n">
-        <v>123.0158730158731</v>
+        <v>15.06944444444444</v>
       </c>
       <c r="F32" t="n">
-        <v>40460.2470760977</v>
+        <v>4347.235322524645</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
           <t>[!] No need for action today</t>
         </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>$4,347.24</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>4347.235322524645</v>
       </c>
     </row>
     <row r="33">
@@ -1314,24 +1572,32 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>36.835636591809</v>
+        <v>45.17982271105376</v>
       </c>
       <c r="C33" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
-        <v>4084.209278120617</v>
+        <v>5.652475765872796e-61</v>
       </c>
       <c r="E33" t="n">
-        <v>126.9841269841271</v>
+        <v>15.55555555555555</v>
       </c>
       <c r="F33" t="n">
-        <v>40792.86174294549</v>
+        <v>4502.42671554982</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
           <t>[!] No need for action today</t>
         </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>$4,502.43</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>4502.42671554982</v>
       </c>
     </row>
     <row r="34">
@@ -1341,24 +1607,32 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>36.8269808893217</v>
+        <v>45.17101888191685</v>
       </c>
       <c r="C34" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
-        <v>4075.147945543613</v>
+        <v>5.091714404353792e-62</v>
       </c>
       <c r="E34" t="n">
-        <v>130.9523809523811</v>
+        <v>16.04166666666666</v>
       </c>
       <c r="F34" t="n">
-        <v>40771.17645391293</v>
+        <v>4501.060221525018</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
           <t>[!] No need for action today</t>
         </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>$4,501.06</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>4501.060221525018</v>
       </c>
     </row>
     <row r="35">
@@ -1368,24 +1642,32 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>36.09888431231411</v>
+        <v>44.27973135855528</v>
       </c>
       <c r="C35" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
-        <v>4579.002861558369</v>
+        <v>4.415854630468289e-62</v>
       </c>
       <c r="E35" t="n">
-        <v>134.9206349206351</v>
+        <v>16.52777777777777</v>
       </c>
       <c r="F35" t="n">
-        <v>40542.96653895184</v>
+        <v>4411.445358077751</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
           <t>[!] No need for action today</t>
         </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>$4,411.45</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>4411.445358077751</v>
       </c>
     </row>
     <row r="36">
@@ -1395,24 +1677,32 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>36.66514811796603</v>
+        <v>44.97612850137143</v>
       </c>
       <c r="C36" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
-        <v>4157.569820999804</v>
+        <v>5.156036474461972e-64</v>
       </c>
       <c r="E36" t="n">
-        <v>138.888888888889</v>
+        <v>17.01388888888888</v>
       </c>
       <c r="F36" t="n">
-        <v>40683.82905007694</v>
+        <v>4480.598961248254</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
           <t>[!] No need for action today</t>
         </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>$4,480.60</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>4480.598961248254</v>
       </c>
     </row>
     <row r="37">
@@ -1422,24 +1712,32 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>35.82962084361885</v>
+        <v>43.95297390773155</v>
       </c>
       <c r="C37" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
-        <v>4753.663447229826</v>
+        <v>5.948193644344517e-64</v>
       </c>
       <c r="E37" t="n">
-        <v>142.857142857143</v>
+        <v>17.49999999999999</v>
       </c>
       <c r="F37" t="n">
-        <v>40440.42714799153</v>
+        <v>4377.797390773155</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
           <t>[!] No need for action today</t>
         </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>$4,377.80</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>4377.797390773155</v>
       </c>
     </row>
     <row r="38">
@@ -1449,24 +1747,32 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>35.9720469885351</v>
+        <v>44.1294619620521</v>
       </c>
       <c r="C38" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
-        <v>4632.969331103616</v>
+        <v>2.340254692876115e-65</v>
       </c>
       <c r="E38" t="n">
-        <v>146.825396825397</v>
+        <v>17.9861111111111</v>
       </c>
       <c r="F38" t="n">
-        <v>40458.19092281332</v>
+        <v>4394.960085094099</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
           <t>[!] No need for action today</t>
         </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>$4,394.96</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>4394.960085094099</v>
       </c>
     </row>
     <row r="39">
@@ -1476,24 +1782,32 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>34.66491028131651</v>
+        <v>42.52761116391168</v>
       </c>
       <c r="C39" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
-        <v>5656.750199928318</v>
+        <v>1.44807304627347e-64</v>
       </c>
       <c r="E39" t="n">
-        <v>150.793650793651</v>
+        <v>18.47222222222221</v>
       </c>
       <c r="F39" t="n">
-        <v>40170.86683045117</v>
+        <v>4234.288894168945</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
           <t>[!] No need for action today</t>
         </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>$4,234.29</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>4234.288894168945</v>
       </c>
     </row>
     <row r="40">
@@ -1503,24 +1817,32 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>33.80631608432192</v>
+        <v>41.47593481417574</v>
       </c>
       <c r="C40" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
-        <v>6380.700766612769</v>
+        <v>1.983990537304113e-64</v>
       </c>
       <c r="E40" t="n">
-        <v>154.7619047619049</v>
+        <v>18.95833333333332</v>
       </c>
       <c r="F40" t="n">
-        <v>40032.25494617278</v>
+        <v>4128.635148084241</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
           <t>[!] No need for action today</t>
         </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>$4,128.64</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>4128.635148084241</v>
       </c>
     </row>
     <row r="41">
@@ -1530,24 +1852,32 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>33.93300173341115</v>
+        <v>41.63303219467908</v>
       </c>
       <c r="C41" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
-        <v>6262.198096238621</v>
+        <v>6.59435551141811e-66</v>
       </c>
       <c r="E41" t="n">
-        <v>158.7301587301589</v>
+        <v>19.44444444444443</v>
       </c>
       <c r="F41" t="n">
-        <v>40036.46967091961</v>
+        <v>4143.858775023464</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
           <t>[!] No need for action today</t>
         </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>$4,143.86</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>4143.858775023464</v>
       </c>
     </row>
     <row r="42">
@@ -1557,24 +1887,32 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>34.41057101404713</v>
+        <v>42.22066505917076</v>
       </c>
       <c r="C42" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
-        <v>5841.853185781381</v>
+        <v>4.945779281453998e-68</v>
       </c>
       <c r="E42" t="n">
-        <v>162.6984126984129</v>
+        <v>19.93055555555554</v>
       </c>
       <c r="F42" t="n">
-        <v>40089.7257871301</v>
+        <v>4202.13595036152</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
           <t>[!] No need for action today</t>
         </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>$4,202.14</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>4202.13595036152</v>
       </c>
     </row>
     <row r="43">
@@ -1584,24 +1922,32 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>34.5228848943926</v>
+        <v>42.36017039404746</v>
       </c>
       <c r="C43" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
-        <v>5736.955157480655</v>
+        <v>1.286052675186954e-69</v>
       </c>
       <c r="E43" t="n">
-        <v>166.6666666666669</v>
+        <v>20.41666666666665</v>
       </c>
       <c r="F43" t="n">
-        <v>40093.1733852066</v>
+        <v>4215.600372738079</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
           <t>[!] No need for action today</t>
         </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>$4,215.60</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>4215.600372738079</v>
       </c>
     </row>
     <row r="44">
@@ -1611,24 +1957,32 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>34.4482070634636</v>
+        <v>42.27023562123649</v>
       </c>
       <c r="C44" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
-        <v>5791.210347715644</v>
+        <v>6.077024558033051e-71</v>
       </c>
       <c r="E44" t="n">
-        <v>170.6349206349208</v>
+        <v>20.90277777777776</v>
       </c>
       <c r="F44" t="n">
-        <v>40068.78249054432</v>
+        <v>4206.120784345872</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
           <t>[!] No need for action today</t>
         </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>$4,206.12</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>4206.120784345872</v>
       </c>
     </row>
     <row r="45">
@@ -1638,24 +1992,32 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>34.25342948785102</v>
+        <v>42.0329172932786</v>
       </c>
       <c r="C45" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
-        <v>5950.134379575023</v>
+        <v>4.13051601823418e-72</v>
       </c>
       <c r="E45" t="n">
-        <v>174.6031746031748</v>
+        <v>21.38888888888888</v>
       </c>
       <c r="F45" t="n">
-        <v>40028.96069282286</v>
+        <v>4181.902840438971</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
           <t>[!] No need for action today</t>
         </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>$4,181.90</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>4181.902840438971</v>
       </c>
     </row>
     <row r="46">
@@ -1665,24 +2027,32 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>33.31025527154303</v>
+        <v>40.87717381264002</v>
       </c>
       <c r="C46" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
-        <v>6782.878187250226</v>
+        <v>5.958296958938858e-72</v>
       </c>
       <c r="E46" t="n">
-        <v>178.5714285714288</v>
+        <v>21.87499999999998</v>
       </c>
       <c r="F46" t="n">
-        <v>39914.56203022182</v>
+        <v>4065.842381264002</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
           <t>[!] No need for action today</t>
         </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>$4,065.84</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>4065.842381264002</v>
       </c>
     </row>
     <row r="47">
@@ -1692,24 +2062,32 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>32.86083762652012</v>
+        <v>40.32728252110365</v>
       </c>
       <c r="C47" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
-        <v>7191.330173083891</v>
+        <v>1.059400733626433e-72</v>
       </c>
       <c r="E47" t="n">
-        <v>182.5396825396828</v>
+        <v>22.3611111111111</v>
       </c>
       <c r="F47" t="n">
-        <v>39869.62811706433</v>
+        <v>4010.367140999254</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
           <t>[!] No need for action today</t>
         </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>$4,010.37</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>4010.367140999254</v>
       </c>
     </row>
     <row r="48">
@@ -1719,24 +2097,32 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>32.57667080572294</v>
+        <v>39.98015330620286</v>
       </c>
       <c r="C48" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
-        <v>7452.761267376654</v>
+        <v>8.389467140922915e-74</v>
       </c>
       <c r="E48" t="n">
-        <v>186.5079365079368</v>
+        <v>22.84722222222221</v>
       </c>
       <c r="F48" t="n">
-        <v>39842.92413659166</v>
+        <v>3975.168108398064</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
           <t>[!] No need for action today</t>
         </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>$3,975.17</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>3975.168108398064</v>
       </c>
     </row>
     <row r="49">
@@ -1746,24 +2132,32 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>33.2346899756399</v>
+        <v>40.78935287917128</v>
       </c>
       <c r="C49" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
-        <v>6834.946310611705</v>
+        <v>7.790055512223571e-77</v>
       </c>
       <c r="E49" t="n">
-        <v>190.4761904761907</v>
+        <v>23.33333333333332</v>
       </c>
       <c r="F49" t="n">
-        <v>39879.16009577541</v>
+        <v>4055.601954583795</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
           <t>[!] No need for action today</t>
         </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>$4,055.60</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>4055.601954583795</v>
       </c>
     </row>
     <row r="50">
@@ -1773,24 +2167,32 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>33.45188202081569</v>
+        <v>41.05756294875189</v>
       </c>
       <c r="C50" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
-        <v>6629.495029774709</v>
+        <v>4.153208968327014e-79</v>
       </c>
       <c r="E50" t="n">
-        <v>194.4444444444447</v>
+        <v>23.81944444444443</v>
       </c>
       <c r="F50" t="n">
-        <v>39886.93260614595</v>
+        <v>4081.936850430745</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
           <t>[!] No need for action today</t>
         </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>$4,081.94</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>4081.936850430745</v>
       </c>
     </row>
     <row r="51">
@@ -1800,24 +2202,32 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>32.35633361091016</v>
+        <v>39.71452230227865</v>
       </c>
       <c r="C51" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
-        <v>7650.817123793668</v>
+        <v>9.451785579275108e-79</v>
       </c>
       <c r="E51" t="n">
-        <v>198.4126984126986</v>
+        <v>24.30555555555554</v>
       </c>
       <c r="F51" t="n">
-        <v>39808.73803629112</v>
+        <v>3947.146674672309</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
           <t>[!] No need for action today</t>
         </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>$3,947.15</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>3947.146674672309</v>
       </c>
     </row>
     <row r="52">
@@ -1827,24 +2237,32 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>32.55576487534513</v>
+        <v>39.96090998109428</v>
       </c>
       <c r="C52" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
-        <v>7457.678100091804</v>
+        <v>3.738548826321005e-81</v>
       </c>
       <c r="E52" t="n">
-        <v>202.3809523809526</v>
+        <v>24.79166666666665</v>
       </c>
       <c r="F52" t="n">
-        <v>39811.06202305598</v>
+        <v>3971.299331442762</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
           <t>[!] No need for action today</t>
         </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>$3,971.30</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>3971.299331442762</v>
       </c>
     </row>
     <row r="53">
@@ -1854,24 +2272,32 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>32.32035296126909</v>
+        <v>39.67354319905203</v>
       </c>
       <c r="C53" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
-        <v>7679.280319594728</v>
+        <v>1.023957864023927e-82</v>
       </c>
       <c r="E53" t="n">
-        <v>206.3492063492066</v>
+        <v>25.27777777777776</v>
       </c>
       <c r="F53" t="n">
-        <v>39793.28407451461</v>
+        <v>3942.076542127425</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
           <t>[!] No need for action today</t>
         </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>$3,942.08</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>3942.076542127425</v>
       </c>
     </row>
     <row r="54">
@@ -1881,24 +2307,32 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>31.91016449597025</v>
+        <v>39.17160478707117</v>
       </c>
       <c r="C54" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
-        <v>8072.394460441977</v>
+        <v>5.870216489933163e-84</v>
       </c>
       <c r="E54" t="n">
-        <v>210.3174603174606</v>
+        <v>25.76388888888887</v>
       </c>
       <c r="F54" t="n">
-        <v>39772.24149609476</v>
+        <v>3891.396589818229</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
           <t>[!] No need for action today</t>
         </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>$3,891.40</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>3891.396589818229</v>
       </c>
     </row>
     <row r="55">
@@ -1908,24 +2342,32 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>32.28182101091133</v>
+        <v>39.62942526457849</v>
       </c>
       <c r="C55" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
-        <v>7711.051880929986</v>
+        <v>4.208857274494451e-87</v>
       </c>
       <c r="E55" t="n">
-        <v>214.2857142857146</v>
+        <v>26.24999999999998</v>
       </c>
       <c r="F55" t="n">
-        <v>39778.58717755559</v>
+        <v>3936.692526457849</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
           <t>[!] No need for action today</t>
         </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>$3,936.69</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>3936.692526457849</v>
       </c>
     </row>
     <row r="56">
@@ -1935,24 +2377,32 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>32.91762993566107</v>
+        <v>40.41157107632936</v>
       </c>
       <c r="C56" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
-        <v>7099.276914720694</v>
+        <v>4.801854666451045e-91</v>
       </c>
       <c r="E56" t="n">
-        <v>218.2539682539685</v>
+        <v>26.73611111111109</v>
       </c>
       <c r="F56" t="n">
-        <v>39798.65288212779</v>
+        <v>4014.420996521825</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
           <t>[!] No need for action today</t>
         </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>$4,014.42</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>4014.420996521825</v>
       </c>
     </row>
     <row r="57">
@@ -1962,24 +2412,32 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>33.50276533477417</v>
+        <v>41.13156737429249</v>
       </c>
       <c r="C57" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
-        <v>6542.889433666691</v>
+        <v>4.507204250538474e-95</v>
       </c>
       <c r="E57" t="n">
-        <v>222.2222222222225</v>
+        <v>27.2222222222222</v>
       </c>
       <c r="F57" t="n">
-        <v>39823.43254621864</v>
+        <v>4085.934515207027</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
           <t>[!] No need for action today</t>
         </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>$4,085.93</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>4085.934515207027</v>
       </c>
     </row>
     <row r="58">
@@ -1989,24 +2447,32 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>32.97627377919853</v>
+        <v>40.48681483589817</v>
       </c>
       <c r="C58" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
-        <v>7036.018950531052</v>
+        <v>1.499084859124992e-96</v>
       </c>
       <c r="E58" t="n">
-        <v>226.1904761904765</v>
+        <v>27.70833333333331</v>
       </c>
       <c r="F58" t="n">
-        <v>39786.10225353911</v>
+        <v>4020.973150256483</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
           <t>[!] No need for action today</t>
         </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>$4,020.97</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>4020.973150256483</v>
       </c>
     </row>
     <row r="59">
@@ -2016,24 +2482,32 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>32.78479451562818</v>
+        <v>40.25334030966025</v>
       </c>
       <c r="C59" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
-        <v>7216.095022261435</v>
+        <v>5.584601489249433e-99</v>
       </c>
       <c r="E59" t="n">
-        <v>230.1587301587305</v>
+        <v>28.19444444444443</v>
       </c>
       <c r="F59" t="n">
-        <v>39770.73080773088</v>
+        <v>3997.13958652158</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
           <t>[!] No need for action today</t>
         </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>$3,997.14</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>3997.13958652158</v>
       </c>
     </row>
     <row r="60">
@@ -2043,24 +2517,32 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>32.99134256991871</v>
+        <v>40.50856659103023</v>
       </c>
       <c r="C60" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
-        <v>7014.641283917076</v>
+        <v>1.261927246427931e-102</v>
       </c>
       <c r="E60" t="n">
-        <v>234.1269841269844</v>
+        <v>28.68055555555554</v>
       </c>
       <c r="F60" t="n">
-        <v>39771.8568697088</v>
+        <v>4022.176103547467</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
           <t>[!] No need for action today</t>
         </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>$4,022.18</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>4022.176103547467</v>
       </c>
     </row>
     <row r="61">
@@ -2070,24 +2552,32 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>33.6058888458095</v>
+        <v>41.2647958244423</v>
       </c>
       <c r="C61" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
-        <v>6425.632404988878</v>
+        <v>1.273085578806878e-107</v>
       </c>
       <c r="E61" t="n">
-        <v>238.0952380952384</v>
+        <v>29.16666666666665</v>
       </c>
       <c r="F61" t="n">
-        <v>39793.42601270314</v>
+        <v>4097.312915777563</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
           <t>[!] No need for action today</t>
         </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>$4,097.31</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>4097.312915777563</v>
       </c>
     </row>
     <row r="62">
@@ -2097,24 +2587,32 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>33.30361125396634</v>
+        <v>40.89526907510976</v>
       </c>
       <c r="C62" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
-        <v>6708.529405594301</v>
+        <v>2.366458845454947e-110</v>
       </c>
       <c r="E62" t="n">
-        <v>242.0634920634924</v>
+        <v>29.65277777777776</v>
       </c>
       <c r="F62" t="n">
-        <v>39770.07716749716</v>
+        <v>4059.874129733198</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
           <t>[!] No need for action today</t>
         </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>$4,059.87</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>4059.874129733198</v>
       </c>
     </row>
     <row r="63">
@@ -2124,24 +2622,32 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>33.18763200391532</v>
+        <v>40.75448738803336</v>
       </c>
       <c r="C63" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
-        <v>6816.199734758563</v>
+        <v>8.163085706549645e-114</v>
       </c>
       <c r="E63" t="n">
-        <v>246.0317460317464</v>
+        <v>30.13888888888887</v>
       </c>
       <c r="F63" t="n">
-        <v>39757.79999264214</v>
+        <v>4045.309849914448</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
           <t>[!] No need for action today</t>
         </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>$4,045.31</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>4045.309849914448</v>
       </c>
     </row>
     <row r="64">
@@ -2151,24 +2657,32 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>32.5016083221849</v>
+        <v>39.91365038982944</v>
       </c>
       <c r="C64" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
-        <v>7479.62351204809</v>
+        <v>8.93218151045195e-116</v>
       </c>
       <c r="E64" t="n">
-        <v>250.0000000000004</v>
+        <v>30.62499999999998</v>
       </c>
       <c r="F64" t="n">
-        <v>39731.23183423299</v>
+        <v>3960.740038982944</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
           <t>[!] No need for action today</t>
         </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>$3,960.74</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>3960.740038982944</v>
       </c>
     </row>
     <row r="65">
@@ -2178,24 +2692,32 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>31.77575122591904</v>
+        <v>39.02382639236231</v>
       </c>
       <c r="C65" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
-        <v>8193.026482982965</v>
+        <v>1.001170286146349e-117</v>
       </c>
       <c r="E65" t="n">
-        <v>253.9682539682543</v>
+        <v>31.11111111111109</v>
       </c>
       <c r="F65" t="n">
-        <v>39714.80945493376</v>
+        <v>3871.27152812512</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
           <t>[!] No need for action today</t>
         </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>$3,871.27</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>3871.27152812512</v>
       </c>
     </row>
     <row r="66">
@@ -2205,24 +2727,32 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>32.26809004989259</v>
+        <v>39.63005836912316</v>
       </c>
       <c r="C66" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
-        <v>7706.692346760193</v>
+        <v>6.775293074446933e-124</v>
       </c>
       <c r="E66" t="n">
-        <v>257.9365079365083</v>
+        <v>31.5972222222222</v>
       </c>
       <c r="F66" t="n">
-        <v>39716.84588871628</v>
+        <v>3931.408614690093</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
           <t>[!] No need for action today</t>
         </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>$3,931.41</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>3931.408614690093</v>
       </c>
     </row>
     <row r="67">
@@ -2232,24 +2762,32 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>33.10649243916052</v>
+        <v>40.66137399995906</v>
       </c>
       <c r="C67" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
-        <v>6883.689057428896</v>
+        <v>9.975921121724316e-132</v>
       </c>
       <c r="E67" t="n">
-        <v>261.9047619047623</v>
+        <v>32.08333333333331</v>
       </c>
       <c r="F67" t="n">
-        <v>39728.27673468465</v>
+        <v>4034.054066662573</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
           <t>[!] No need for action today</t>
         </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>$4,034.05</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>4034.054066662573</v>
       </c>
     </row>
     <row r="68">
@@ -2259,24 +2797,32 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>33.06213302651354</v>
+        <v>40.6085213188974</v>
       </c>
       <c r="C68" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
-        <v>6924.920903308874</v>
+        <v>4.742818238872926e-137</v>
       </c>
       <c r="E68" t="n">
-        <v>265.8730158730162</v>
+        <v>32.56944444444443</v>
       </c>
       <c r="F68" t="n">
-        <v>39721.18091394939</v>
+        <v>4028.282687445296</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
           <t>[!] No need for action today</t>
         </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>$4,028.28</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>4028.282687445296</v>
       </c>
     </row>
     <row r="69">
@@ -2286,24 +2832,32 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>33.69581560145802</v>
+        <v>41.38850192796388</v>
       </c>
       <c r="C69" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
-        <v>6306.158207366841</v>
+        <v>2.437786462961198e-145</v>
       </c>
       <c r="E69" t="n">
-        <v>269.8412698412702</v>
+        <v>33.05555555555554</v>
       </c>
       <c r="F69" t="n">
-        <v>39732.13253898358</v>
+        <v>4105.794637240832</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
           <t>[!] No need for action today</t>
         </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>$4,105.79</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>4105.794637240832</v>
       </c>
     </row>
     <row r="70">
@@ -2313,24 +2867,32 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>33.92757162895712</v>
+        <v>41.67483969780175</v>
       </c>
       <c r="C70" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
-        <v>6078.781185469296</v>
+        <v>8.01627624407113e-153</v>
       </c>
       <c r="E70" t="n">
-        <v>273.8095238095242</v>
+        <v>33.54166666666666</v>
       </c>
       <c r="F70" t="n">
-        <v>39732.5432906169</v>
+        <v>4133.942303113508</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
           <t>[!] No need for action today</t>
         </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>$4,133.94</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>4133.942303113508</v>
       </c>
     </row>
     <row r="71">
@@ -2340,24 +2902,32 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>33.51712334971661</v>
+        <v>41.17231882461203</v>
       </c>
       <c r="C71" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
-        <v>6474.219583392987</v>
+        <v>1.949714888754844e-158</v>
       </c>
       <c r="E71" t="n">
-        <v>277.7777777777782</v>
+        <v>34.02777777777777</v>
       </c>
       <c r="F71" t="n">
-        <v>39713.56515533181</v>
+        <v>4083.204104683425</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
           <t>[!] No need for action today</t>
         </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>$4,083.20</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>4083.204104683425</v>
       </c>
     </row>
     <row r="72">
@@ -2367,24 +2937,32 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>33.74749701984266</v>
+        <v>41.45697261619378</v>
       </c>
       <c r="C72" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
-        <v>6246.981844254328</v>
+        <v>2.568757837299978e-167</v>
       </c>
       <c r="E72" t="n">
-        <v>281.7460317460321</v>
+        <v>34.51388888888889</v>
       </c>
       <c r="F72" t="n">
-        <v>39712.73283235095</v>
+        <v>4111.183372730489</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
           <t>[!] No need for action today</t>
         </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>$4,111.18</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>4111.183372730489</v>
       </c>
     </row>
     <row r="73">
@@ -2394,24 +2972,32 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>34.74349900145349</v>
+        <v>42.68221985103808</v>
       </c>
       <c r="C73" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
-        <v>5282.29948321453</v>
+        <v>1.720395892825804e-180</v>
       </c>
       <c r="E73" t="n">
-        <v>285.7142857142861</v>
+        <v>35</v>
       </c>
       <c r="F73" t="n">
-        <v>39740.08419895373</v>
+        <v>4233.221985103808</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
           <t>[!] No need for action today</t>
         </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>$4,233.22</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>4233.221985103808</v>
       </c>
     </row>
     <row r="74">
@@ -2421,24 +3007,32 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>34.72068056478363</v>
+        <v>42.65589919147479</v>
       </c>
       <c r="C74" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
-        <v>5298.272398402375</v>
+        <v>2.161004672448421e-190</v>
       </c>
       <c r="E74" t="n">
-        <v>289.6825396825401</v>
+        <v>35.48611111111111</v>
       </c>
       <c r="F74" t="n">
-        <v>39729.27042350348</v>
+        <v>4230.103808036368</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
           <t>[!] No need for action today</t>
         </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>$4,230.10</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>4230.103808036368</v>
       </c>
     </row>
     <row r="75">
@@ -2448,24 +3042,32 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>35.76338272560888</v>
+        <v>43.93866829121426</v>
       </c>
       <c r="C75" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
-        <v>4311.091412900148</v>
+        <v>1.296827493745964e-206</v>
       </c>
       <c r="E75" t="n">
-        <v>293.6507936507941</v>
+        <v>35.97222222222223</v>
       </c>
       <c r="F75" t="n">
-        <v>39780.82334485824</v>
+        <v>4357.894606899203</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
           <t>[!] No need for action today</t>
         </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>$4,357.89</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>4357.894606899203</v>
       </c>
     </row>
     <row r="76">
@@ -2475,24 +3077,32 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>34.03658843308497</v>
+        <v>41.81881771478086</v>
       </c>
       <c r="C76" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
-        <v>5954.734285935246</v>
+        <v>1.441014777281985e-210</v>
       </c>
       <c r="E76" t="n">
-        <v>297.619047619048</v>
+        <v>36.45833333333334</v>
       </c>
       <c r="F76" t="n">
-        <v>39693.70367140117</v>
+        <v>4145.423438144753</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
           <t>[!] No need for action today</t>
         </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>$4,145.42</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>4145.423438144753</v>
       </c>
     </row>
     <row r="77">
@@ -2502,24 +3112,32 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>34.57008241519479</v>
+        <v>42.47599584642117</v>
       </c>
       <c r="C77" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
-        <v>5430.142943204053</v>
+        <v>1.518503212282513e-227</v>
       </c>
       <c r="E77" t="n">
-        <v>301.587301587302</v>
+        <v>36.94444444444446</v>
       </c>
       <c r="F77" t="n">
-        <v>39698.63805681154</v>
+        <v>4210.655140197673</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
           <t>[!] No need for action today</t>
         </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>$4,210.66</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>4210.655140197673</v>
       </c>
     </row>
     <row r="78">
@@ -2529,24 +3147,32 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>34.62769298104337</v>
+        <v>42.54848887702006</v>
       </c>
       <c r="C78" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
-        <v>5370.585944899318</v>
+        <v>4.211009427398074e-244</v>
       </c>
       <c r="E78" t="n">
-        <v>305.555555555556</v>
+        <v>37.43055555555557</v>
       </c>
       <c r="F78" t="n">
-        <v>39692.72337038712</v>
+        <v>4217.41833214645</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
           <t>[!] No need for action today</t>
         </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>$4,217.42</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>4217.41833214645</v>
       </c>
     </row>
     <row r="79">
@@ -2556,24 +3182,32 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>34.43326467590643</v>
+        <v>42.31128456960304</v>
       </c>
       <c r="C79" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
-        <v>5558.748977916743</v>
+        <v>1.371272203702559e-261</v>
       </c>
       <c r="E79" t="n">
-        <v>309.52380952381</v>
+        <v>37.91666666666669</v>
       </c>
       <c r="F79" t="n">
-        <v>39682.48984429937</v>
+        <v>4193.211790293637</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
           <t>[!] No need for action today</t>
         </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>$4,193.21</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>4193.211790293637</v>
       </c>
     </row>
     <row r="80">
@@ -2583,24 +3217,32 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>34.49371982519974</v>
+        <v>42.38727221066272</v>
       </c>
       <c r="C80" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
-        <v>5497.379169449808</v>
+        <v>9.352339848358607e-284</v>
       </c>
       <c r="E80" t="n">
-        <v>313.4920634920639</v>
+        <v>38.4027777777778</v>
       </c>
       <c r="F80" t="n">
-        <v>39677.60693115748</v>
+        <v>4200.324443288494</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
           <t>[!] No need for action today</t>
         </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>$4,200.32</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>4200.324443288494</v>
       </c>
     </row>
     <row r="81">
@@ -2610,24 +3252,32 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>33.22278101463573</v>
+        <v>40.82712970612457</v>
       </c>
       <c r="C81" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
-        <v>6760.784942916729</v>
+        <v>9.200514180345195e-300</v>
       </c>
       <c r="E81" t="n">
-        <v>317.4603174603179</v>
+        <v>38.88888888888891</v>
       </c>
       <c r="F81" t="n">
-        <v>39666.10564009214</v>
+        <v>4043.824081723568</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
           <t>[!] No need for action today</t>
         </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>$4,043.82</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>4043.824081723568</v>
       </c>
     </row>
     <row r="82">
@@ -2637,24 +3287,32 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>33.08580940223093</v>
+        <v>40.66043832369331</v>
       </c>
       <c r="C82" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
-        <v>6898.7722496868</v>
+        <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>321.4285714285719</v>
+        <v>39.37500000000003</v>
       </c>
       <c r="F82" t="n">
-        <v>39663.15308048916</v>
+        <v>4026.668832369332</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
           <t>[!] No need for action today</t>
         </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>$4,026.67</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>4026.668832369332</v>
       </c>
     </row>
     <row r="83">
@@ -2664,24 +3322,32 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>33.31052219615677</v>
+        <v>40.93823937176331</v>
       </c>
       <c r="C83" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
-        <v>6675.548194341253</v>
+        <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>325.3968253968259</v>
+        <v>39.86111111111114</v>
       </c>
       <c r="F83" t="n">
-        <v>39660.67356510119</v>
+        <v>4053.96282606522</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
           <t>[!] No need for action today</t>
         </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>$4,053.96</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>4053.96282606522</v>
       </c>
     </row>
     <row r="84">
@@ -2691,24 +3357,32 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>34.2546720401242</v>
+        <v>42.10027779099923</v>
       </c>
       <c r="C84" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
-        <v>5733.721778881368</v>
+        <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>329.3650793650799</v>
+        <v>40.34722222222226</v>
       </c>
       <c r="F84" t="n">
-        <v>39659.02873964048</v>
+        <v>4169.6805568777</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
           <t>[!] No need for action today</t>
         </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>$4,169.68</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>4169.6805568777</v>
       </c>
     </row>
     <row r="85">
@@ -2718,24 +3392,32 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>33.92148681814032</v>
+        <v>41.69245366440129</v>
       </c>
       <c r="C85" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
-        <v>6067.646002456101</v>
+        <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>333.3333333333338</v>
+        <v>40.83333333333337</v>
       </c>
       <c r="F85" t="n">
-        <v>39655.79948726309</v>
+        <v>4128.412033106796</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
           <t>[!] No need for action today</t>
         </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>$4,128.41</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>4128.412033106796</v>
       </c>
     </row>
     <row r="86">
@@ -2745,24 +3427,32 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>33.40780697123398</v>
+        <v>41.06274426477556</v>
       </c>
       <c r="C86" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
-        <v>6582.690333254504</v>
+        <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>337.3015873015878</v>
+        <v>41.31944444444449</v>
       </c>
       <c r="F86" t="n">
-        <v>39653.19571718689</v>
+        <v>4064.954982033111</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
           <t>[!] No need for action today</t>
         </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>$4,064.95</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>4064.954982033111</v>
       </c>
     </row>
     <row r="87">
@@ -2772,24 +3462,32 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>33.09318472714039</v>
+        <v>40.67766297854446</v>
       </c>
       <c r="C87" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
-        <v>6898.880723432143</v>
+        <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>341.2698412698418</v>
+        <v>41.8055555555556</v>
       </c>
       <c r="F87" t="n">
-        <v>39650.79560930269</v>
+        <v>4025.96074229889</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
           <t>[!] No need for action today</t>
         </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>$4,025.96</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>4025.96074229889</v>
       </c>
     </row>
     <row r="88">
@@ -2799,24 +3497,32 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>33.67133560372475</v>
+        <v>41.38997853644605</v>
       </c>
       <c r="C88" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
-        <v>6322.316436885423</v>
+        <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>345.2380952380957</v>
+        <v>42.29166666666672</v>
       </c>
       <c r="F88" t="n">
-        <v>39648.41394537208</v>
+        <v>4096.706186977938</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
           <t>[!] No need for action today</t>
         </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>$4,096.71</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>4096.706186977938</v>
       </c>
     </row>
     <row r="89">
@@ -2826,24 +3532,32 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>33.88186027562737</v>
+        <v>41.65043412817278</v>
       </c>
       <c r="C89" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
-        <v>6113.378147744129</v>
+        <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v>349.2063492063497</v>
+        <v>42.77777777777783</v>
       </c>
       <c r="F89" t="n">
-        <v>39646.03207416516</v>
+        <v>4122.265635039501</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
           <t>[!] No need for action today</t>
         </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>$4,122.27</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>4122.265635039501</v>
       </c>
     </row>
     <row r="90">
@@ -2853,24 +3567,32 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>33.54501651878272</v>
+        <v>41.2380122163849</v>
       </c>
       <c r="C90" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
-        <v>6451.809004018969</v>
+        <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>353.1746031746037</v>
+        <v>43.26388888888894</v>
       </c>
       <c r="F90" t="n">
-        <v>39643.65091962709</v>
+        <v>4080.5373327496</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
           <t>[!] No need for action today</t>
         </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>$4,080.54</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>4080.5373327496</v>
       </c>
     </row>
     <row r="91">
@@ -2880,24 +3602,32 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>33.87266071393547</v>
+        <v>41.64246721067363</v>
       </c>
       <c r="C91" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
-        <v>6125.752015970896</v>
+        <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>357.1428571428577</v>
+        <v>43.75000000000006</v>
       </c>
       <c r="F91" t="n">
-        <v>39641.26987276351</v>
+        <v>4120.496721067363</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
           <t>[!] No need for action today</t>
         </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>$4,120.50</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>4120.496721067363</v>
       </c>
     </row>
   </sheetData>
